--- a/10-Code/QX_Frame.Web/Uploads/OutPut/AncientBooks.xlsx
+++ b/10-Code/QX_Frame.Web/Uploads/OutPut/AncientBooks.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t xml:space="preserve">BookUid</t>
   </si>
@@ -53,6 +53,39 @@
     <t xml:space="preserve">Notice</t>
   </si>
   <si>
+    <t xml:space="preserve">0e016077-7f31-46c1-bb36-3d1db443f725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快乐男声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">快乐</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宋朝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">齐先生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柒小</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无</t>
+  </si>
+  <si>
     <t xml:space="preserve">9f477d87-afcf-4679-9cdf-68004d6d19ba</t>
   </si>
   <si>
@@ -62,15 +95,9 @@
     <t xml:space="preserve">腹黑</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">唐朝</t>
   </si>
   <si>
-    <t xml:space="preserve">柒小</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2</t>
   </si>
   <si>
@@ -89,30 +116,6 @@
     <t xml:space="preserve">f2c961c7-27ff-4958-ad78-9680e3cc34c2</t>
   </si>
   <si>
-    <t xml:space="preserve">快乐男声</t>
-  </si>
-  <si>
-    <t xml:space="preserve">快乐</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宋朝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">齐先生</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无</t>
-  </si>
-  <si>
     <t xml:space="preserve">1ff1871c-f513-4875-8cfd-9857879abe2c</t>
   </si>
   <si>
@@ -153,6 +156,12 @@
   </si>
   <si>
     <t xml:space="preserve">555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57b45ce4-12ed-4142-91dd-ab6a273bbc53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Uploads/57b45ce4-12ed-4142-91dd-ab6a273bbc53/500320838.jpg,/Uploads/57b45ce4-12ed-4142-91dd-ab6a273bbc53/a.jpg,/Uploads/57b45ce4-12ed-4142-91dd-ab6a273bbc53/20140906072515_dZker.gif,/Uploads/57b45ce4-12ed-4142-91dd-ab6a273bbc53/3439905690381537164.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">a5b4c1d2-04ff-4adc-8074-be8721cc952e</t>
@@ -284,26 +293,24 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L2"/>
       <c r="M2" t="s">
         <v>23</v>
       </c>
@@ -319,30 +326,32 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3"/>
       <c r="M3" t="s">
         <v>32</v>
       </c>
@@ -364,22 +373,22 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
         <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="s">
@@ -391,34 +400,34 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="s">
@@ -427,160 +436,240 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
       <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7"/>
+        <v>45</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
       <c r="K8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8"/>
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
       <c r="M8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9"/>
       <c r="M9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
         <v>23</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/10-Code/QX_Frame.Web/Uploads/OutPut/AncientBooks.xlsx
+++ b/10-Code/QX_Frame.Web/Uploads/OutPut/AncientBooks.xlsx
@@ -134,7 +134,7 @@
     <t xml:space="preserve">a29c1599-9ef6-42fa-b916-9c6facdca079</t>
   </si>
   <si>
-    <t xml:space="preserve">guji 2</t>
+    <t xml:space="preserve">guji 2刘</t>
   </si>
   <si>
     <t xml:space="preserve">24</t>
@@ -167,7 +167,7 @@
     <t xml:space="preserve">a5b4c1d2-04ff-4adc-8074-be8721cc952e</t>
   </si>
   <si>
-    <t xml:space="preserve">在绝望中哀鸣</t>
+    <t xml:space="preserve">在绝望中哀鸣劉備</t>
   </si>
   <si>
     <t xml:space="preserve">其他标题哦</t>
